--- a/投诉批量导入模板.xlsx
+++ b/投诉批量导入模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>用户品牌</t>
   </si>
@@ -119,6 +119,9 @@
     <t>故障原因</t>
   </si>
   <si>
+    <t>故障详情</t>
+  </si>
+  <si>
     <t>神州行</t>
   </si>
   <si>
@@ -699,6 +702,9 @@
   </si>
   <si>
     <t>唐江WBS</t>
+  </si>
+  <si>
+    <t>方林</t>
   </si>
   <si>
     <t>街道</t>
@@ -709,12 +715,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -752,15 +758,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +769,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,14 +835,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,54 +873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,26 +888,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -917,7 +916,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,25 +976,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,19 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,61 +1030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,19 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,19 +1072,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,6 +1141,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1174,36 +1203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1221,6 +1220,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1229,166 +1237,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1414,15 +1413,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1787,1541 +1777,1542 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG108"/>
+  <dimension ref="A1:AH108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE7" sqref="AE7"/>
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="9" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="11" max="11" width="26.125" customWidth="1"/>
     <col min="12" max="12" width="21.75" customWidth="1"/>
     <col min="19" max="19" width="49" customWidth="1"/>
     <col min="20" max="20" width="20.75" customWidth="1"/>
     <col min="26" max="26" width="34.625" customWidth="1"/>
-    <col min="29" max="30" width="10.375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="13.875" style="12" customWidth="1"/>
-    <col min="32" max="33" width="9" style="12"/>
+    <col min="29" max="30" width="10.375" style="9" customWidth="1"/>
+    <col min="31" max="31" width="13.875" style="9" customWidth="1"/>
+    <col min="32" max="33" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:34">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="14" t="s">
+      <c r="K3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="U6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" spans="1:33">
+      <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="P9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="Q9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" s="14" t="s">
+      <c r="R9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A5" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:33">
-      <c r="A9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="14" t="s">
+      <c r="W9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AA9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
+      <c r="X9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
     </row>
     <row r="10" spans="29:33">
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="29:33">
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
     </row>
     <row r="12" spans="29:33">
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
     </row>
     <row r="13" spans="29:33">
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
     </row>
     <row r="14" spans="29:33">
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
     </row>
     <row r="15" spans="29:33">
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
     </row>
     <row r="16" spans="29:33">
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
     </row>
     <row r="17" spans="29:33">
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
     </row>
     <row r="18" spans="29:33">
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
     </row>
     <row r="19" spans="29:33">
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
     </row>
     <row r="20" spans="29:33">
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
     </row>
     <row r="21" spans="29:33">
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
     </row>
     <row r="22" spans="29:33">
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
     </row>
     <row r="23" spans="29:33">
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
     </row>
     <row r="24" spans="29:33">
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="17"/>
-      <c r="AG24" s="17"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
     </row>
     <row r="25" spans="29:33">
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
     </row>
     <row r="26" spans="29:33">
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
     </row>
     <row r="27" spans="29:33">
-      <c r="AC27" s="18"/>
-      <c r="AD27" s="18"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
     </row>
     <row r="28" spans="29:33">
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
     </row>
     <row r="29" spans="29:33">
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
     </row>
     <row r="30" spans="29:33">
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
     </row>
     <row r="31" spans="29:33">
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
     </row>
     <row r="32" spans="29:33">
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
     </row>
     <row r="33" spans="29:33">
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
     </row>
     <row r="34" spans="29:33">
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
     </row>
     <row r="35" spans="29:33">
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="17"/>
-      <c r="AG35" s="17"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
     </row>
     <row r="36" spans="29:33">
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="17"/>
-      <c r="AF36" s="17"/>
-      <c r="AG36" s="17"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
     </row>
     <row r="37" spans="29:33">
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
     </row>
     <row r="38" spans="29:33">
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="18"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
     </row>
     <row r="39" spans="29:33">
-      <c r="AC39" s="18"/>
-      <c r="AD39" s="18"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
     </row>
     <row r="40" spans="29:33">
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
     </row>
     <row r="41" spans="29:33">
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
     </row>
     <row r="42" spans="29:33">
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
     </row>
     <row r="43" spans="29:33">
-      <c r="AC43" s="18"/>
-      <c r="AD43" s="18"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
     </row>
     <row r="44" spans="29:33">
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="17"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
     </row>
     <row r="45" spans="29:33">
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
     </row>
     <row r="46" spans="29:33">
-      <c r="AC46" s="18"/>
-      <c r="AD46" s="18"/>
-      <c r="AE46" s="17"/>
-      <c r="AF46" s="17"/>
-      <c r="AG46" s="17"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
     </row>
     <row r="47" spans="29:33">
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="17"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="14"/>
     </row>
     <row r="48" spans="29:33">
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="17"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
     </row>
     <row r="49" spans="29:33">
-      <c r="AC49" s="18"/>
-      <c r="AD49" s="18"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="17"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
     </row>
     <row r="50" spans="29:33">
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
     </row>
     <row r="51" spans="29:33">
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
     </row>
     <row r="52" spans="29:33">
-      <c r="AC52" s="18"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
+      <c r="AC52" s="15"/>
+      <c r="AD52" s="15"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
     </row>
     <row r="53" spans="29:33">
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="17"/>
-      <c r="AG53" s="17"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
     </row>
     <row r="54" spans="29:33">
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
     </row>
     <row r="55" spans="29:33">
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
-      <c r="AG55" s="17"/>
+      <c r="AC55" s="15"/>
+      <c r="AD55" s="15"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
     </row>
     <row r="56" spans="29:33">
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="17"/>
-      <c r="AG56" s="17"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
     </row>
     <row r="57" spans="29:33">
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
-      <c r="AE57" s="17"/>
-      <c r="AF57" s="17"/>
-      <c r="AG57" s="17"/>
+      <c r="AC57" s="15"/>
+      <c r="AD57" s="15"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
     </row>
     <row r="58" spans="29:33">
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="18"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
-      <c r="AG58" s="17"/>
+      <c r="AC58" s="15"/>
+      <c r="AD58" s="15"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
     </row>
     <row r="59" spans="29:33">
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
-      <c r="AG59" s="17"/>
+      <c r="AC59" s="15"/>
+      <c r="AD59" s="15"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
     </row>
     <row r="60" spans="29:33">
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
-      <c r="AE60" s="17"/>
-      <c r="AF60" s="17"/>
-      <c r="AG60" s="17"/>
+      <c r="AC60" s="15"/>
+      <c r="AD60" s="15"/>
+      <c r="AE60" s="14"/>
+      <c r="AF60" s="14"/>
+      <c r="AG60" s="14"/>
     </row>
     <row r="61" spans="29:33">
-      <c r="AC61" s="18"/>
-      <c r="AD61" s="18"/>
-      <c r="AE61" s="17"/>
-      <c r="AF61" s="17"/>
-      <c r="AG61" s="17"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
     </row>
     <row r="62" spans="29:33">
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
-      <c r="AE62" s="17"/>
-      <c r="AF62" s="17"/>
-      <c r="AG62" s="17"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
     </row>
     <row r="63" spans="29:33">
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="17"/>
-      <c r="AF63" s="17"/>
-      <c r="AG63" s="17"/>
+      <c r="AC63" s="15"/>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
     </row>
     <row r="64" spans="29:33">
-      <c r="AC64" s="18"/>
-      <c r="AD64" s="18"/>
-      <c r="AE64" s="17"/>
-      <c r="AF64" s="17"/>
-      <c r="AG64" s="17"/>
+      <c r="AC64" s="15"/>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
     </row>
     <row r="65" spans="29:33">
-      <c r="AC65" s="18"/>
-      <c r="AD65" s="18"/>
-      <c r="AE65" s="17"/>
-      <c r="AF65" s="17"/>
-      <c r="AG65" s="17"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
     </row>
     <row r="66" spans="29:33">
-      <c r="AC66" s="18"/>
-      <c r="AD66" s="18"/>
-      <c r="AE66" s="17"/>
-      <c r="AF66" s="17"/>
-      <c r="AG66" s="17"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
     </row>
     <row r="67" spans="29:33">
-      <c r="AC67" s="18"/>
-      <c r="AD67" s="18"/>
-      <c r="AE67" s="17"/>
-      <c r="AF67" s="17"/>
-      <c r="AG67" s="17"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
     </row>
     <row r="68" spans="29:33">
-      <c r="AC68" s="18"/>
-      <c r="AD68" s="18"/>
-      <c r="AE68" s="17"/>
-      <c r="AF68" s="17"/>
-      <c r="AG68" s="17"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
     </row>
     <row r="69" spans="29:33">
-      <c r="AC69" s="18"/>
-      <c r="AD69" s="18"/>
-      <c r="AE69" s="17"/>
-      <c r="AF69" s="17"/>
-      <c r="AG69" s="17"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
     </row>
     <row r="70" spans="29:33">
-      <c r="AC70" s="18"/>
-      <c r="AD70" s="18"/>
-      <c r="AE70" s="17"/>
-      <c r="AF70" s="17"/>
-      <c r="AG70" s="17"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="14"/>
     </row>
     <row r="71" spans="29:33">
-      <c r="AC71" s="18"/>
-      <c r="AD71" s="18"/>
-      <c r="AE71" s="17"/>
-      <c r="AF71" s="17"/>
-      <c r="AG71" s="17"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
     </row>
     <row r="72" spans="29:33">
-      <c r="AC72" s="18"/>
-      <c r="AD72" s="18"/>
-      <c r="AE72" s="17"/>
-      <c r="AF72" s="17"/>
-      <c r="AG72" s="17"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
     </row>
     <row r="73" spans="29:33">
-      <c r="AC73" s="18"/>
-      <c r="AD73" s="18"/>
-      <c r="AE73" s="17"/>
-      <c r="AF73" s="17"/>
-      <c r="AG73" s="17"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
     </row>
     <row r="74" spans="29:33">
-      <c r="AC74" s="18"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="17"/>
-      <c r="AG74" s="17"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
     </row>
     <row r="75" spans="29:33">
-      <c r="AC75" s="18"/>
-      <c r="AD75" s="18"/>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
     </row>
     <row r="76" spans="29:33">
-      <c r="AC76" s="18"/>
-      <c r="AD76" s="18"/>
-      <c r="AE76" s="17"/>
-      <c r="AF76" s="17"/>
-      <c r="AG76" s="17"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
     </row>
     <row r="77" spans="29:33">
-      <c r="AC77" s="18"/>
-      <c r="AD77" s="18"/>
-      <c r="AE77" s="17"/>
-      <c r="AF77" s="17"/>
-      <c r="AG77" s="17"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
     </row>
     <row r="78" spans="29:33">
-      <c r="AC78" s="18"/>
-      <c r="AD78" s="18"/>
-      <c r="AE78" s="17"/>
-      <c r="AF78" s="17"/>
-      <c r="AG78" s="17"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="14"/>
+      <c r="AF78" s="14"/>
+      <c r="AG78" s="14"/>
     </row>
     <row r="79" spans="29:33">
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="17"/>
-      <c r="AF79" s="17"/>
-      <c r="AG79" s="17"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+      <c r="AG79" s="14"/>
     </row>
     <row r="80" spans="29:33">
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="17"/>
-      <c r="AF80" s="17"/>
-      <c r="AG80" s="17"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="14"/>
+      <c r="AG80" s="14"/>
     </row>
     <row r="81" spans="29:33">
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="17"/>
-      <c r="AF81" s="17"/>
-      <c r="AG81" s="17"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
+      <c r="AE81" s="14"/>
+      <c r="AF81" s="14"/>
+      <c r="AG81" s="14"/>
     </row>
     <row r="82" spans="29:33">
-      <c r="AC82" s="18"/>
-      <c r="AD82" s="18"/>
-      <c r="AE82" s="17"/>
-      <c r="AF82" s="17"/>
-      <c r="AG82" s="17"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="14"/>
     </row>
     <row r="83" spans="29:33">
-      <c r="AC83" s="18"/>
-      <c r="AD83" s="18"/>
-      <c r="AE83" s="17"/>
-      <c r="AF83" s="17"/>
-      <c r="AG83" s="17"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
     </row>
     <row r="84" spans="29:33">
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="18"/>
-      <c r="AE84" s="17"/>
-      <c r="AF84" s="17"/>
-      <c r="AG84" s="17"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="14"/>
+      <c r="AF84" s="14"/>
+      <c r="AG84" s="14"/>
     </row>
     <row r="85" spans="29:33">
-      <c r="AC85" s="18"/>
-      <c r="AD85" s="18"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="14"/>
+      <c r="AF85" s="14"/>
+      <c r="AG85" s="14"/>
     </row>
     <row r="86" spans="29:33">
-      <c r="AC86" s="18"/>
-      <c r="AD86" s="18"/>
-      <c r="AE86" s="17"/>
-      <c r="AF86" s="17"/>
-      <c r="AG86" s="17"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="14"/>
+      <c r="AG86" s="14"/>
     </row>
     <row r="87" spans="29:33">
-      <c r="AC87" s="18"/>
-      <c r="AD87" s="18"/>
-      <c r="AE87" s="17"/>
-      <c r="AF87" s="17"/>
-      <c r="AG87" s="17"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="14"/>
+      <c r="AF87" s="14"/>
+      <c r="AG87" s="14"/>
     </row>
     <row r="88" spans="29:33">
-      <c r="AC88" s="18"/>
-      <c r="AD88" s="18"/>
-      <c r="AE88" s="17"/>
-      <c r="AF88" s="17"/>
-      <c r="AG88" s="17"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="14"/>
+      <c r="AF88" s="14"/>
+      <c r="AG88" s="14"/>
     </row>
     <row r="89" spans="29:33">
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="18"/>
-      <c r="AE89" s="17"/>
-      <c r="AF89" s="17"/>
-      <c r="AG89" s="17"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="14"/>
+      <c r="AF89" s="14"/>
+      <c r="AG89" s="14"/>
     </row>
     <row r="90" spans="29:33">
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="18"/>
-      <c r="AE90" s="17"/>
-      <c r="AF90" s="17"/>
-      <c r="AG90" s="17"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="14"/>
+      <c r="AF90" s="14"/>
+      <c r="AG90" s="14"/>
     </row>
     <row r="91" spans="29:33">
-      <c r="AC91" s="18"/>
-      <c r="AD91" s="18"/>
-      <c r="AE91" s="17"/>
-      <c r="AF91" s="17"/>
-      <c r="AG91" s="17"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="14"/>
+      <c r="AF91" s="14"/>
+      <c r="AG91" s="14"/>
     </row>
     <row r="92" spans="29:33">
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="18"/>
-      <c r="AF92" s="17"/>
-      <c r="AG92" s="17"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AF92" s="14"/>
+      <c r="AG92" s="14"/>
     </row>
     <row r="93" spans="29:33">
-      <c r="AC93" s="18"/>
-      <c r="AD93" s="18"/>
-      <c r="AF93" s="17"/>
-      <c r="AG93" s="17"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AF93" s="14"/>
+      <c r="AG93" s="14"/>
     </row>
     <row r="94" spans="29:33">
-      <c r="AC94" s="18"/>
-      <c r="AD94" s="18"/>
-      <c r="AF94" s="17"/>
-      <c r="AG94" s="17"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AF94" s="14"/>
+      <c r="AG94" s="14"/>
     </row>
     <row r="95" spans="29:33">
-      <c r="AC95" s="18"/>
-      <c r="AD95" s="18"/>
-      <c r="AF95" s="17"/>
-      <c r="AG95" s="17"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AF95" s="14"/>
+      <c r="AG95" s="14"/>
     </row>
     <row r="96" spans="29:33">
-      <c r="AC96" s="18"/>
-      <c r="AD96" s="18"/>
-      <c r="AF96" s="17"/>
-      <c r="AG96" s="17"/>
+      <c r="AC96" s="15"/>
+      <c r="AD96" s="15"/>
+      <c r="AF96" s="14"/>
+      <c r="AG96" s="14"/>
     </row>
     <row r="97" spans="29:33">
-      <c r="AC97" s="18"/>
-      <c r="AD97" s="18"/>
-      <c r="AG97" s="17"/>
+      <c r="AC97" s="15"/>
+      <c r="AD97" s="15"/>
+      <c r="AG97" s="14"/>
     </row>
     <row r="98" spans="29:33">
-      <c r="AC98" s="18"/>
-      <c r="AD98" s="18"/>
-      <c r="AG98" s="17"/>
+      <c r="AC98" s="15"/>
+      <c r="AD98" s="15"/>
+      <c r="AG98" s="14"/>
     </row>
     <row r="99" spans="29:33">
-      <c r="AC99" s="18"/>
-      <c r="AD99" s="18"/>
-      <c r="AG99" s="17"/>
+      <c r="AC99" s="15"/>
+      <c r="AD99" s="15"/>
+      <c r="AG99" s="14"/>
     </row>
     <row r="100" spans="29:33">
-      <c r="AC100" s="18"/>
-      <c r="AD100" s="18"/>
-      <c r="AG100" s="17"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AG100" s="14"/>
     </row>
     <row r="101" spans="29:33">
-      <c r="AC101" s="18"/>
-      <c r="AD101" s="18"/>
-      <c r="AG101" s="17"/>
+      <c r="AC101" s="15"/>
+      <c r="AD101" s="15"/>
+      <c r="AG101" s="14"/>
     </row>
     <row r="102" spans="29:33">
-      <c r="AC102" s="18"/>
-      <c r="AD102" s="18"/>
-      <c r="AG102" s="17"/>
+      <c r="AC102" s="15"/>
+      <c r="AD102" s="15"/>
+      <c r="AG102" s="14"/>
     </row>
     <row r="103" spans="29:33">
-      <c r="AC103" s="18"/>
-      <c r="AD103" s="18"/>
-      <c r="AG103" s="17"/>
+      <c r="AC103" s="15"/>
+      <c r="AD103" s="15"/>
+      <c r="AG103" s="14"/>
     </row>
     <row r="104" spans="33:33">
-      <c r="AG104" s="17"/>
+      <c r="AG104" s="14"/>
     </row>
     <row r="105" spans="33:33">
-      <c r="AG105" s="17"/>
+      <c r="AG105" s="14"/>
     </row>
     <row r="106" spans="33:33">
-      <c r="AG106" s="17"/>
+      <c r="AG106" s="14"/>
     </row>
     <row r="107" spans="33:33">
-      <c r="AG107" s="17"/>
+      <c r="AG107" s="14"/>
     </row>
     <row r="108" spans="33:33">
-      <c r="AG108" s="17"/>
+      <c r="AG108" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF96">
-      <formula1>数据表!$L$2:$L$42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD17 AD30 AD2:AD10 AD11:AD14 AD15:AD16 AD18:AD23 AD24:AD29 AD31:AD33 AD34:AD39 AD40:AD103">
-      <formula1>INDIRECT($AC2)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG108">
       <formula1>数据表!$M$2:$M$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC103">
       <formula1>数据表!$D$2:$D$9</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF96">
+      <formula1>数据表!$L$2:$L$43</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="AD$1:AD$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE91">
       <formula1>数据表!$C$2:$C$8</formula1>
     </dataValidation>
@@ -3353,10 +3344,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3378,7 +3369,7 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
@@ -3387,25 +3378,25 @@
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>30</v>
@@ -3419,28 +3410,28 @@
         <v>4748</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -3448,28 +3439,28 @@
         <v>5571</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M3" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>155</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:14">
@@ -3477,79 +3468,79 @@
         <v>5193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="M4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="2">
         <v>5690</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="M5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="2">
         <v>6032</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N6" s="7"/>
     </row>
@@ -3558,243 +3549,237 @@
         <v>3927</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="4:14">
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M8" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="N8" s="9"/>
+      <c r="M8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="5:14">
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="N9" s="9"/>
+      <c r="M9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="5:14">
       <c r="E10" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
       <c r="E12" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
       <c r="E13" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
       <c r="E14" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M14" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="N14" s="9"/>
+      <c r="M14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
       <c r="E15" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M15" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N15" s="9"/>
+      <c r="M15" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
       <c r="E16" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M16" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="9"/>
+      <c r="M16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="M17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="5:14">
       <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M18" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="M18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" spans="5:12">
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="5:12">
       <c r="E20" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="5:12">
       <c r="E21" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="5:12">
       <c r="E22" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="12:12">
       <c r="L23" s="1" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="10:12">
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="10:12">
       <c r="J25" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="8:12">
@@ -3802,74 +3787,72 @@
         <v>27</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="8:12">
       <c r="H27" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="10:12">
       <c r="J28" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="10:12">
       <c r="J29" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="12:12">
       <c r="L30" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="4:12">
@@ -3880,74 +3863,77 @@
       <c r="H32"/>
       <c r="I32" s="4"/>
       <c r="L32" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="8:12">
       <c r="H34" s="6"/>
       <c r="L34" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="12:12">
       <c r="L35" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="12:12">
       <c r="L36" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="12:12">
       <c r="L37" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="12:12">
       <c r="L38" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="12:12">
       <c r="L39" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="12:12">
       <c r="L40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="12:12">
       <c r="L41" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12">
+      <c r="L42" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
